--- a/Andrew-annotations/HPE_Q4_2017.xlsx
+++ b/Andrew-annotations/HPE_Q4_2017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF46A99-10A1-49AD-A32B-CE0820582A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67674D9-1648-463F-8B6D-87CF53A2874C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -570,7 +570,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -723,16 +723,16 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -755,16 +755,16 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -924,7 +924,7 @@
         <v>2</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -944,7 +944,7 @@
         <v>33</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -982,7 +982,7 @@
         <v>2</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1049,10 +1049,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -1107,13 +1107,13 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -1139,16 +1139,16 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -1203,16 +1203,16 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -1235,16 +1235,16 @@
         <v>2</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -1273,10 +1273,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>2</v>
